--- a/Planilhas/Gestão_Projetos/Gestao_Projetos.xlsx
+++ b/Planilhas/Gestão_Projetos/Gestao_Projetos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Responsável</t>
   </si>
@@ -45,12 +45,15 @@
   <si>
     <t>Em Andamento</t>
   </si>
+  <si>
+    <t>Pendente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +76,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -121,22 +144,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -147,6 +239,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:G50" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G50"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Nome do Projeto"/>
+    <tableColumn id="3" name="Responsável"/>
+    <tableColumn id="4" name="Início" dataDxfId="1"/>
+    <tableColumn id="5" name="Término" dataDxfId="2"/>
+    <tableColumn id="6" name="Status"/>
+    <tableColumn id="7" name="Progresso (%)" dataDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(ISTEXT(F2), IF(F2="Concluído", 1, IF(F2="Em Andamento", 0.4, IF(F2="Pendente", 0, ""))), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,22 +549,22 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -463,612 +573,616 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>IF(ISTEXT(F2), IF(F2="Concluído", 1, IF(F2="Em Andamento", 0.4, IF(F2="Pendente", 0, ""))), "")</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="4" t="str">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G66" si="0">IF(ISTEXT(F3), IF(F3="Concluído", 1, IF(F3="Em Andamento", 0.4, IF(F3="Pendente", 0, ""))), "")</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="4" t="str">
+      <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="4" t="str">
+      <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="4" t="str">
+      <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="4" t="str">
+      <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="4" t="str">
+      <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="4" t="str">
+      <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="4" t="str">
+      <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="4" t="str">
+      <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="4" t="str">
+      <c r="G20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="4" t="str">
+      <c r="G21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="4" t="str">
+      <c r="G22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="4" t="str">
+      <c r="G23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="4" t="str">
+      <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="4" t="str">
+      <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="4" t="str">
+      <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="4" t="str">
+      <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="4" t="str">
+      <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="4" t="str">
+      <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="4" t="str">
+      <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="4" t="str">
+      <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="4" t="str">
+      <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="4" t="str">
+      <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="4" t="str">
+      <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="4" t="str">
+      <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="4" t="str">
+      <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="4" t="str">
+      <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="4" t="str">
+      <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="4" t="str">
+      <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="4" t="str">
+      <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="4" t="str">
+      <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="4" t="str">
+      <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" s="4" t="str">
+      <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" s="4" t="str">
+      <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="4" t="str">
+      <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="4" t="str">
+      <c r="G46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" s="4" t="str">
+      <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="4" t="str">
+      <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="4" t="str">
+      <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="4" t="str">
+      <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="4" t="str">
+      <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" s="4" t="str">
+      <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="4" t="str">
+      <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" s="4" t="str">
+      <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="4" t="str">
+      <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="4" t="str">
+      <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G57" s="4" t="str">
+      <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="4" t="str">
+      <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="4" t="str">
+      <c r="G59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60" s="4" t="str">
+      <c r="G60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G61" s="4" t="str">
+      <c r="G61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G62" s="4" t="str">
+      <c r="G62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G63" s="4" t="str">
+      <c r="G63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G64" s="4" t="str">
+      <c r="G64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" s="4" t="str">
+      <c r="G65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66" s="4" t="str">
+      <c r="G66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G67" s="4" t="str">
+      <c r="G67" s="3" t="str">
         <f t="shared" ref="G67:G100" si="1">IF(ISTEXT(F67), IF(F67="Concluído", 1, IF(F67="Em Andamento", 0.4, IF(F67="Pendente", 0, ""))), "")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G68" s="4" t="str">
+      <c r="G68" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G69" s="4" t="str">
+      <c r="G69" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G70" s="4" t="str">
+      <c r="G70" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G71" s="4" t="str">
+      <c r="G71" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G72" s="4" t="str">
+      <c r="G72" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G73" s="4" t="str">
+      <c r="G73" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G74" s="4" t="str">
+      <c r="G74" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G75" s="4" t="str">
+      <c r="G75" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G76" s="4" t="str">
+      <c r="G76" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G77" s="4" t="str">
+      <c r="G77" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G78" s="4" t="str">
+      <c r="G78" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G79" s="4" t="str">
+      <c r="G79" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="4" t="str">
+      <c r="G80" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="4" t="str">
+      <c r="G81" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82" s="4" t="str">
+      <c r="G82" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83" s="4" t="str">
+      <c r="G83" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="4" t="str">
+      <c r="G84" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G85" s="4" t="str">
+      <c r="G85" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86" s="4" t="str">
+      <c r="G86" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G87" s="4" t="str">
+      <c r="G87" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G88" s="4" t="str">
+      <c r="G88" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G89" s="4" t="str">
+      <c r="G89" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="4" t="str">
+      <c r="G90" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G91" s="4" t="str">
+      <c r="G91" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G92" s="4" t="str">
+      <c r="G92" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G93" s="4" t="str">
+      <c r="G93" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G94" s="4" t="str">
+      <c r="G94" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G95" s="4" t="str">
+      <c r="G95" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G96" s="4" t="str">
+      <c r="G96" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G97" s="4" t="str">
+      <c r="G97" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G98" s="4" t="str">
+      <c r="G98" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G99" s="4" t="str">
+      <c r="G99" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G100" s="4" t="str">
+      <c r="G100" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1081,19 +1195,176 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>